--- a/NoOutlierExclusion/Master_Statistics_Exclude_S5S10.xlsx
+++ b/NoOutlierExclusion/Master_Statistics_Exclude_S5S10.xlsx
@@ -10,18 +10,20 @@
     <sheet name="Speed_Accuracy_Tradeoff" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="T_Test_Congruency" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Congruency_Means" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ANOVA_Image" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Image_Means" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ANOVA_Text" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Text_Means" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Chi_Square_Table" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Chi_Square_Test" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="IAT_Dscore" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="IAT_Dscore_Modality" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ANOVA_Image" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Image_Means" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ANOVA_Text" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Text_Means" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Chi_Square_Table" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Chi_Square_Test" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">Modality</t>
   </si>
@@ -125,6 +127,39 @@
     <t xml:space="preserve">SD_ACC</t>
   </si>
   <si>
+    <t xml:space="preserve">subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_cong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_incong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_cong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_incong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S004</t>
+  </si>
+  <si>
     <t xml:space="preserve">Effect</t>
   </si>
   <si>
@@ -143,10 +178,13 @@
     <t xml:space="preserve">ges</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image_Type</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Image_Type</t>
   </si>
   <si>
     <t xml:space="preserve">Condition:Image_Type</t>
@@ -560,13 +598,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.816</v>
+        <v>0.834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.162</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="3">
@@ -577,13 +615,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.962</v>
+        <v>0.965</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211</v>
+        <v>0.215</v>
       </c>
     </row>
   </sheetData>
@@ -602,13 +640,286 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.863198976667142</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.141004147984172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.905748278759711</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.122031508239253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.856858624160426</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.117628223890882</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.849237697508215</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.135970640096379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.925606862507266</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.110542074498271</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.779335566668306</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0378545002264144</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.06037946125362</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0958807805569025</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.977752936652299</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.133974450716196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.00288534000065</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0589820126637138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.13630205250083</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0802126655695558</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0143451499971</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.124523952406702</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.02213405207901</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.257807379589452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>219</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
@@ -616,16 +927,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.000000000000000000000000000000548861645522458</v>
+        <v>0.000000000000000000000000000000257605893001105</v>
       </c>
       <c r="B2" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -664,22 +975,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.240652738960512</v>
+        <v>0.5092748636643</v>
       </c>
       <c r="B2" t="n">
-        <v>0.350639204226577</v>
+        <v>0.836881403228961</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.759347261039488</v>
+        <v>0.4907251363357</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.937196983266448</v>
+        <v>-0.884964939547716</v>
       </c>
       <c r="F2" t="n">
-        <v>0.976002030762944</v>
+        <v>0.987179528918318</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +1050,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.118702758161915</v>
+        <v>-0.124283351871433</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -757,19 +1068,19 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.94879421171754</v>
+        <v>-3.28379662661693</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0601</v>
+        <v>0.0463</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.246811105851372</v>
+        <v>-0.244730851806591</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00940558952754279</v>
+        <v>-0.00383585193627436</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
@@ -814,16 +1125,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>0.819525040398425</v>
+        <v>0.826452494993276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.078302493640819</v>
+        <v>0.0849036270661745</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93969387755102</v>
+        <v>0.936068088836937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0588815888922993</v>
+        <v>0.057073617851891</v>
       </c>
     </row>
     <row r="3">
@@ -831,16 +1142,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.938227798560339</v>
+        <v>0.950735846864709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.101916670810204</v>
+        <v>0.0927036795803301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.943239795918367</v>
+        <v>0.939939709003661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0309518747933995</v>
+        <v>0.035244389686281</v>
       </c>
     </row>
   </sheetData>
@@ -871,82 +1182,105 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.810333223726948</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1.0625151310389</v>
       </c>
       <c r="D2" t="n">
-        <v>8.395</v>
+        <v>0.273768078882709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58</v>
       </c>
       <c r="G2" t="n">
-        <v>0.181</v>
+        <v>0.921151612493135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.894605328334728</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1.06576684736892</v>
       </c>
       <c r="D3" t="n">
-        <v>4.691</v>
+        <v>0.237430294473415</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57</v>
       </c>
       <c r="G3" t="n">
-        <v>0.058</v>
+        <v>0.720891659650259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>1.02619618103169</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0.977377644064639</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005</v>
+        <v>0.305083494204631</v>
       </c>
       <c r="E4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000807</v>
+        <v>-0.160016972056533</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.769393955009291</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.889527325430033</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.237565934160109</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.505684330733113</v>
       </c>
     </row>
   </sheetData>
@@ -965,72 +1299,236 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.801608707762419</v>
+        <v>0.751538819994312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1089818671356</v>
+        <v>0.897430975869266</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.141815395720373</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.02874695045536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.760378276923662</v>
+        <v>0.871155020691743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0626413578109895</v>
+        <v>1.22759928620854</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.325307990809185</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.09571321820335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.875354224432433</v>
+        <v>0.86152382666672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105265351085943</v>
+        <v>0.946211434481264</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.173895645198179</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.487002464714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.927686830002737</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.18959209643113</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.268809340229173</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.974316094095195</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.89273327333193</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.916361713335694</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.192159592486444</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.122962583850356</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.16919215356715</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.04049757240493</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.364953205283712</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.352633102817048</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.836993600004532</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.084539544638984</v>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.68726231000231</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.744932516675908</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0937595990880575</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.615085892372851</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.851525600016272</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.03910816207223</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.28160794019923</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>29</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.666112475107229</v>
       </c>
     </row>
   </sheetData>
@@ -1049,25 +1547,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1081,21 +1579,21 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>9.243</v>
+        <v>10.809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.056</v>
+        <v>0.046</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G2" t="n">
-        <v>0.341</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1104,131 +1602,39 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.275</v>
+        <v>1.306</v>
       </c>
       <c r="E3" t="n">
-        <v>0.636</v>
+        <v>0.336</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000357</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.785</v>
+        <v>0.045</v>
       </c>
       <c r="E4" t="n">
-        <v>0.139</v>
+        <v>0.845</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G4" t="n">
-        <v>0.053</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.093</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -1250,15 +1656,12 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1267,16 +1670,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.808986444916537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.869088056249893</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.146956723617713</v>
+        <v>0.106406803267049</v>
       </c>
     </row>
     <row r="3">
@@ -1284,186 +1684,41 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.781380204686684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.892881452091387</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0859531071587797</v>
+        <v>0.0783766231507037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.885557770193682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.853026647494698</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.101955628317843</v>
+        <v>0.0980863732927038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.86888065938183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.852501893758017</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.139482067393224</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.925606862507266</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.110542074498271</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.785065564586451</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0329906770107552</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.08924592917174</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.142748851686679</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.95650304248508</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.140484862562963</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.00419843750812</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.103517828616737</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.11635010208799</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0941745380424584</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.993915474989384</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.146657781079244</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.01778281249305</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.24845075556998</v>
+        <v>0.0995160522711127</v>
       </c>
     </row>
   </sheetData>
@@ -1482,26 +1737,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.366</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>187</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>183</v>
-      </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.007</v>
       </c>
     </row>
   </sheetData>
